--- a/master/ValueSet-bc-license-status-reason-value-set.xlsx
+++ b/master/ValueSet-bc-license-status-reason-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T22:17:34+00:00</t>
+    <t>2024-07-03T22:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ValueSet-bc-license-status-reason-value-set.xlsx
+++ b/master/ValueSet-bc-license-status-reason-value-set.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from bc-license-statu" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T22:37:23+00:00</t>
+    <t>2024-09-27T21:23:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ValueSet-bc-license-status-reason-value-set.xlsx
+++ b/master/ValueSet-bc-license-status-reason-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T21:23:15+00:00</t>
+    <t>2024-10-18T22:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
